--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3031.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3031.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.148949052907076</v>
+        <v>1.038516640663147</v>
       </c>
       <c r="B1">
-        <v>1.768430458202826</v>
+        <v>1.794321417808533</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.852307796478271</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.624589920043945</v>
       </c>
       <c r="E1">
-        <v>1.208430396826121</v>
+        <v>0.9391082525253296</v>
       </c>
     </row>
   </sheetData>
